--- a/medicine/Psychotrope/Cuisine_franc-comtoise/Cuisine_franc-comtoise.xlsx
+++ b/medicine/Psychotrope/Cuisine_franc-comtoise/Cuisine_franc-comtoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La cuisine franc-comtoise est une cuisine traditionnelle régionale, qui allie divers produits de Franche-Comté (Doubs et Haut-Doubs, Jura occidental, Vosges du sud, plaine de Saône, Bresse jurassienne et Pays dolois) principalement composée de fromages et de charcuteries de salaison et de fumage, issus d'élevage comtois, et de vins du vignoble du Jura, avec pour produits de prédilection le comté, le vin jaune, et les morilles[1],[2]...
+La cuisine franc-comtoise est une cuisine traditionnelle régionale, qui allie divers produits de Franche-Comté (Doubs et Haut-Doubs, Jura occidental, Vosges du sud, plaine de Saône, Bresse jurassienne et Pays dolois) principalement composée de fromages et de charcuteries de salaison et de fumage, issus d'élevage comtois, et de vins du vignoble du Jura, avec pour produits de prédilection le comté, le vin jaune, et les morilles,...
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les spécialités régionales traditionnelles de la cuisine comtoise sont d'origine paysanne, rustique, plutôt caloriques, issues en particulier d'une importante zone d'élevage traditionnelle historique, de production de viande et de fromage franc-comtoise[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécialités régionales traditionnelles de la cuisine comtoise sont d'origine paysanne, rustique, plutôt caloriques, issues en particulier d'une importante zone d'élevage traditionnelle historique, de production de viande et de fromage franc-comtoise,.
 Les longs hivers froids de montagnes (dans le Haut-Doubs, le Haut-Jura, ou le massif des Vosges) obligeaient les paysans francs-comtois à vivre en autarcie dans leur ferme comtoise d'élevage de vaches montbéliardes et de cochons, ou leurs productions de viande et de produits laitiers étaient conservées et commercialisées par transformation en fromages et en charcuterie de salaison et de fumage en tuyé (dans une région riche en sel et en sapin). Le régime alimentaire montagnard typique franc-comtois (avec des éléments communs avec la cuisine suisse voisine) était donc traditionnellement composé plutôt de jambon, de saucisse, de lard, et de fromage..., que de produits issus de l'agriculture, de maraîchage, de verger, et d’élevage de volailles des plaines du Doubs, du Jura, de Haute-Saône, ou de Bresse jurassienne et Pays dolois (cuisine bressane).
-Si les villes de Besançon ou de Belfort ne produisent aucune spécialité gastronomique, le Territoire de Belfort (historiquement rattaché à l'Alsace jusqu’à la guerre franco-allemande de 1870, et dont une partie importante de la population est d'origine alsacienne) cuisine des recettes aussi bien typiquement comtoises que typiquement de cuisine alsacienne, dont la choucroute d'Alsace par exemple, bien que le chou soit souvent remplacé par des raves salées, et la charcuterie alsacienne par de la charcuterie comtoise[5]...
+Si les villes de Besançon ou de Belfort ne produisent aucune spécialité gastronomique, le Territoire de Belfort (historiquement rattaché à l'Alsace jusqu’à la guerre franco-allemande de 1870, et dont une partie importante de la population est d'origine alsacienne) cuisine des recettes aussi bien typiquement comtoises que typiquement de cuisine alsacienne, dont la choucroute d'Alsace par exemple, bien que le chou soit souvent remplacé par des raves salées, et la charcuterie alsacienne par de la charcuterie comtoise...
 	Apéritif traditionnel
 			Crémant-du-jura.
 			Pontarlier (apéritif).
@@ -552,7 +566,9 @@
           <t>Plats typiques de Franche-Comté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Salade de cramaillots.
@@ -606,7 +622,9 @@
           <t>Charcuteries de Franche-Comté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La charcuterie comtoise est issue en particulier de l'industrie de salaison du massif du Jura et de fumage des tuyés du Haut-Doubs.
 			Charcuterie de salaison, saucisse et jambon cru fumé du Haut-Doubs.
@@ -644,7 +662,9 @@
           <t>Fromages franc-comtois</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Morbiflette (tartiflette au Morbier).
@@ -690,7 +710,9 @@
           <t>Desserts et pâtisseries de Franche-Comté</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Téméraire.
@@ -726,7 +748,9 @@
           <t>Spécialités villageoises locales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Pâte de coing
 Cochon en pain d'épices de Vesoul
@@ -762,7 +786,9 @@
           <t>Vins, liqueurs et alcools produits en Franche-Comté</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La Franche-Comté produits de nombreux vins, bières et alcools avec son vignoble du Jura (avec entre autres ses cépages typiques savagnin, poulsard, trousseau, ainsi que chardonnay, et pinot noir), distillerie les fils d'Émile Pernot, distillerie Pierre Guy de Pontarlier, distilleries d'eau de vie de cerise de Fougerolles, Kirsch de Fougerolles, brasserie La Rouget de Lisle, La Franche... Ces vins et alcools entrent dans la composition de nombreuses recettes de la gastronomie franc-comtoise.
 			Crémant, Trousseau, Poulsard, Chardonnay, Savagnin, Vin de paille, Macvin du Jura ...
@@ -799,17 +825,87 @@
           <t>Quelques lieux et événements</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Foire comtoise de Besançon
 Fromageries Arnaud Frères - Fort des Rousses
 Vignoble du Jura - Percée du vin jaune - Pressée du vin de paille
 Distillerie Les Fils d'Émile Pernot - Distillerie Pierre Guy de Pontarlier
-Marché de Noël de Besançon - Marché de Noël de Montbéliard
-Restauration gastronomique
-Jean-Paul Jeunet : 2 étoiles au Guide Michelin à Arbois
-Confréries et associations bachiques
-Commanderie des Nobles Vins du Jura et du Comté
+Marché de Noël de Besançon - Marché de Noël de Montbéliard</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cuisine_franc-comtoise</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuisine_franc-comtoise</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Quelques lieux et événements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Restauration gastronomique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Jean-Paul Jeunet : 2 étoiles au Guide Michelin à Arbois</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cuisine_franc-comtoise</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuisine_franc-comtoise</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Quelques lieux et événements</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Confréries et associations bachiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Commanderie des Nobles Vins du Jura et du Comté
 Association des œnophiles et dégustateurs du Jura, fondatrice du Concours mondial du savagnin</t>
         </is>
       </c>
